--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/43782163/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/43782163/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9984045624732971</v>
+        <v>0.9585216045379639</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.998583197593689</v>
+        <v>0.9588715434074402</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9980089068412781</v>
+        <v>0.9224608540534973</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9746760725975037</v>
+        <v>0.6446958780288696</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9986061453819275</v>
+        <v>0.9594239592552185</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9986237287521362</v>
+        <v>0.9598231911659241</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9986531734466553</v>
+        <v>0.9603054523468018</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9986318945884705</v>
+        <v>0.9594550132751465</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9986531734466553</v>
+        <v>0.9603054523468018</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9986205101013184</v>
+        <v>0.96013343334198</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9986615180969238</v>
+        <v>0.9606273174285889</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9928025603294373</v>
+        <v>0.9151246547698975</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.998620867729187</v>
+        <v>0.9600426554679871</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9926754832267761</v>
+        <v>0.9399604797363281</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.99860018491745</v>
+        <v>0.9594080448150635</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9986086487770081</v>
+        <v>0.9591934680938721</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8970596790313721</v>
+        <v>0.514299750328064</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9986096620559692</v>
+        <v>0.9596523642539978</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9986234903335571</v>
+        <v>0.9604103565216064</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9986287355422974</v>
+        <v>0.9596805572509766</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9986419081687927</v>
+        <v>0.9601259827613831</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.998630702495575</v>
+        <v>0.9600827693939209</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9986463189125061</v>
+        <v>0.9602177143096924</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9746943116188049</v>
+        <v>0.6480483412742615</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8092904090881348</v>
+        <v>0.4955236613750458</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9986141920089722</v>
+        <v>0.9595933556556702</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.998583197593689</v>
+        <v>0.9588715434074402</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9985966086387634</v>
+        <v>0.9594349265098572</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.998584508895874</v>
+        <v>0.9590411186218262</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9985542893409729</v>
+        <v>0.9586665034294128</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9985969662666321</v>
+        <v>0.9592684507369995</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.990533709526062</v>
+        <v>0.8042637705802917</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9920225143432617</v>
+        <v>0.9122443795204163</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9938161373138428</v>
+        <v>0.9148274064064026</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9986061453819275</v>
+        <v>0.9596384167671204</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9937582015991211</v>
+        <v>0.9150604605674744</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9986501336097717</v>
+        <v>0.9603736996650696</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9814173579216003</v>
+        <v>0.3087596297264099</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9911319613456726</v>
+        <v>0.7955201268196106</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9986327290534973</v>
+        <v>0.9602670669555664</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7353875637054443</v>
+        <v>0.9077498316764832</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9906314611434937</v>
+        <v>0.80350661277771</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.993506908416748</v>
+        <v>0.914537787437439</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9907069206237793</v>
+        <v>0.8028367757797241</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9908213019371033</v>
+        <v>0.7998888492584229</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5600126981735229</v>
+        <v>0.5809208750724792</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9906519651412964</v>
+        <v>0.8028791546821594</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9986560344696045</v>
+        <v>0.960642397403717</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9903897643089294</v>
+        <v>0.7985671758651733</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9904520511627197</v>
+        <v>0.7823776602745056</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9985525012016296</v>
+        <v>0.9581444263458252</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9903897643089294</v>
+        <v>0.7985671758651733</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.989976704120636</v>
+        <v>0.7948684096336365</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9986211061477661</v>
+        <v>0.9596132636070251</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9986478686332703</v>
+        <v>0.960433304309845</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.998654842376709</v>
+        <v>0.9605628848075867</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9937752485275269</v>
+        <v>0.9157339930534363</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9985847473144531</v>
+        <v>0.9601185917854309</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.998562753200531</v>
+        <v>0.9594273567199707</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9986353516578674</v>
+        <v>0.9601752758026123</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9986483454704285</v>
+        <v>0.9602630138397217</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.993776798248291</v>
+        <v>0.9150741100311279</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9833195805549622</v>
+        <v>0.4346629977226257</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9938772320747375</v>
+        <v>0.9158200025558472</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9938772320747375</v>
+        <v>0.9158200025558472</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9937676191329956</v>
+        <v>0.9140501022338867</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9938772320747375</v>
+        <v>0.9158200025558472</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.988869309425354</v>
+        <v>0.7395201921463013</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9985995888710022</v>
+        <v>0.959850549697876</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8854080438613892</v>
+        <v>0.8949766159057617</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9985032081604004</v>
+        <v>0.9573209285736084</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9938457608222961</v>
+        <v>0.9154977798461914</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9986498951911926</v>
+        <v>0.9601902365684509</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9985879063606262</v>
+        <v>0.9591015577316284</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9938457608222961</v>
+        <v>0.9154977798461914</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9985418319702148</v>
+        <v>0.9584382176399231</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9938457608222961</v>
+        <v>0.9154977798461914</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9986371397972107</v>
+        <v>0.9599897265434265</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9937213659286499</v>
+        <v>0.9143858551979065</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9985677003860474</v>
+        <v>0.9583871960639954</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9937213659286499</v>
+        <v>0.9143858551979065</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9985639452934265</v>
+        <v>0.9584283828735352</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9985639452934265</v>
+        <v>0.9584283828735352</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9986611604690552</v>
+        <v>0.9606401920318604</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9938344955444336</v>
+        <v>0.9159846901893616</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9986065030097961</v>
+        <v>0.959372878074646</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9938085675239563</v>
+        <v>0.9151768684387207</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9985653758049011</v>
+        <v>0.9580183625221252</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.998637855052948</v>
+        <v>0.9601837396621704</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9986386895179749</v>
+        <v>0.9601459503173828</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9986405968666077</v>
+        <v>0.9602235555648804</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9986366629600525</v>
+        <v>0.9601749777793884</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9986400008201599</v>
+        <v>0.9601477980613708</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9986385703086853</v>
+        <v>0.96022629737854</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9986482262611389</v>
+        <v>0.9605345726013184</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9026876091957092</v>
+        <v>0.5802444815635681</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9986510872840881</v>
+        <v>0.9605814814567566</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.675707221031189</v>
+        <v>0.7440924048423767</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9986233711242676</v>
+        <v>0.9599290490150452</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.99861741065979</v>
+        <v>0.9599940776824951</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9642620086669922</v>
+        <v>0.5918563008308411</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9903408885002136</v>
+        <v>0.8017230033874512</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9985717535018921</v>
+        <v>0.9589184522628784</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9895234704017639</v>
+        <v>0.744688093662262</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9986263513565063</v>
+        <v>0.959821343421936</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9904384016990662</v>
+        <v>0.8033183217048645</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9751327633857727</v>
+        <v>0.6494823098182678</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9986226558685303</v>
+        <v>0.9594290852546692</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.998583197593689</v>
+        <v>0.9588715434074402</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9903620481491089</v>
+        <v>0.8034286499023438</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9905834197998047</v>
+        <v>0.8006467223167419</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9934676289558411</v>
+        <v>0.9144890308380127</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9986509680747986</v>
+        <v>0.9602587223052979</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9934895038604736</v>
+        <v>0.9149508476257324</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9981589913368225</v>
+        <v>0.9554906487464905</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9985968470573425</v>
+        <v>0.9590442776679993</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9640371799468994</v>
+        <v>0.5994477868080139</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4734816551208496</v>
+        <v>0.5948510766029358</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.998583197593689</v>
+        <v>0.9588715434074402</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9895813465118408</v>
+        <v>0.7435019016265869</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9986661672592163</v>
+        <v>0.9606302976608276</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9895813465118408</v>
+        <v>0.7435019016265869</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9986661672592163</v>
+        <v>0.9606302976608276</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9895813465118408</v>
+        <v>0.7435019016265869</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9986461997032166</v>
+        <v>0.9601215720176697</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9618816375732422</v>
+        <v>0.5902473926544189</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.998583197593689</v>
+        <v>0.9588715434074402</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.8725072145462036</v>
+        <v>0.7872843146324158</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7548978328704834</v>
+        <v>0.4232180416584015</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.998604953289032</v>
+        <v>0.959281325340271</v>
       </c>
     </row>
     <row r="132">
@@ -4123,14 +4123,14 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.8226065635681152</v>
+        <v>0.4647420048713684</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9986109733581543</v>
+        <v>0.9591731429100037</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9986329674720764</v>
+        <v>0.9596102833747864</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9986110925674438</v>
+        <v>0.9594386219978333</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9982106685638428</v>
+        <v>0.9434713125228882</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9986197948455811</v>
+        <v>0.9594840407371521</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.998620867729187</v>
+        <v>0.9592241644859314</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9986149072647095</v>
+        <v>0.9594087600708008</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9985747337341309</v>
+        <v>0.9584294557571411</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9903406500816345</v>
+        <v>0.6072125434875488</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.998583197593689</v>
+        <v>0.9588715434074402</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9937206506729126</v>
+        <v>0.9145970344543457</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9986591339111328</v>
+        <v>0.9602922797203064</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9937206506729126</v>
+        <v>0.9145970344543457</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9985772371292114</v>
+        <v>0.9585673809051514</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.988869309425354</v>
+        <v>0.7395201921463013</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9986146688461304</v>
+        <v>0.9601538777351379</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9936715364456177</v>
+        <v>0.9147647023200989</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9859957098960876</v>
+        <v>0.6478698253631592</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.998583197593689</v>
+        <v>0.9588715434074402</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9608929753303528</v>
+        <v>0.5433002710342407</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9986425042152405</v>
+        <v>0.9605038166046143</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9755634665489197</v>
+        <v>0.6470577120780945</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9986521601676941</v>
+        <v>0.9601187109947205</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9753438830375671</v>
+        <v>0.645498514175415</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9986573457717896</v>
+        <v>0.9602558612823486</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9753520488739014</v>
+        <v>0.6475694179534912</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9986569881439209</v>
+        <v>0.960412859916687</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9635967612266541</v>
+        <v>0.8883544206619263</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9986220598220825</v>
+        <v>0.9595261216163635</v>
       </c>
     </row>
     <row r="162">
@@ -4963,14 +4963,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9956480860710144</v>
+        <v>0.4944205582141876</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9985972046852112</v>
+        <v>0.9591740369796753</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9937445521354675</v>
+        <v>0.9139362573623657</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9986639022827148</v>
+        <v>0.9603027105331421</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9831171035766602</v>
+        <v>0.8938544988632202</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9901594519615173</v>
+        <v>0.7999981045722961</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9935691356658936</v>
+        <v>0.9114815592765808</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.998583197593689</v>
+        <v>0.9588715434074402</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9901594519615173</v>
+        <v>0.7999981045722961</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9934199452400208</v>
+        <v>0.9099640250205994</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.998583197593689</v>
+        <v>0.9588715434074402</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.99861741065979</v>
+        <v>0.9594579339027405</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9986163377761841</v>
+        <v>0.9594764113426208</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.99861741065979</v>
+        <v>0.9594579339027405</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.99861741065979</v>
+        <v>0.9594579339027405</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9986163377761841</v>
+        <v>0.9594764113426208</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9986445307731628</v>
+        <v>0.9599597454071045</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9985264539718628</v>
+        <v>0.9578571319580078</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9985975623130798</v>
+        <v>0.959053099155426</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9986237287521362</v>
+        <v>0.9597278833389282</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9986217021942139</v>
+        <v>0.9594632983207703</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9893307685852051</v>
+        <v>0.7430717945098877</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9986602067947388</v>
+        <v>0.9604167342185974</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9986530542373657</v>
+        <v>0.9605331420898438</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9986478686332703</v>
+        <v>0.9606320858001709</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9986568689346313</v>
+        <v>0.9604018926620483</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9986353516578674</v>
+        <v>0.9600375294685364</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.998640239238739</v>
+        <v>0.9600932002067566</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9986355900764465</v>
+        <v>0.9600479602813721</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8977097868919373</v>
+        <v>0.5247781872749329</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.99863201379776</v>
+        <v>0.9595805406570435</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9986059069633484</v>
+        <v>0.9593634605407715</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9895618557929993</v>
+        <v>0.7457674741744995</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9908865690231323</v>
+        <v>0.8039679527282715</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9986566305160522</v>
+        <v>0.9604006409645081</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9986609220504761</v>
+        <v>0.9604216814041138</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9986659288406372</v>
+        <v>0.9605478048324585</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9986090064048767</v>
+        <v>0.9597054719924927</v>
       </c>
     </row>
     <row r="200">
@@ -6027,14 +6027,14 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9034208059310913</v>
+        <v>0.8899884223937988</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9986374974250793</v>
+        <v>0.9599089622497559</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9986440539360046</v>
+        <v>0.9600606560707092</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9985862970352173</v>
+        <v>0.9589592218399048</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9902864694595337</v>
+        <v>0.7996203899383545</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9986525774002075</v>
+        <v>0.9605791568756104</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.998613715171814</v>
+        <v>0.9594607949256897</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9062186479568481</v>
+        <v>0.5900325775146484</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9985185265541077</v>
+        <v>0.9570489525794983</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.886986255645752</v>
+        <v>0.4965034127235413</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9986125230789185</v>
+        <v>0.9593572020530701</v>
       </c>
     </row>
   </sheetData>
